--- a/medicine/Handicap/Fédération_française_du_sport_adapté/Fédération_française_du_sport_adapté.xlsx
+++ b/medicine/Handicap/Fédération_française_du_sport_adapté/Fédération_française_du_sport_adapté.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_du_sport_adapt%C3%A9</t>
+          <t>Fédération_française_du_sport_adapté</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La Fédération française de sport adapté (FFSA) est une association loi de 1901 créée le 27 juin 1971[1]  sous le nom de Fédération française d'éducation par le sport des personnes handicapées mentales. Elle prend son appellation actuelle de Fédération française de sport adapté en 1983. La fédération est chargée d'organiser, de développer, de coordonner et de contrôler la pratique des activités physiques et sportives des personnes en situation de handicap mental ou psychique[2].
+La Fédération française de sport adapté (FFSA) est une association loi de 1901 créée le 27 juin 1971  sous le nom de Fédération française d'éducation par le sport des personnes handicapées mentales. Elle prend son appellation actuelle de Fédération française de sport adapté en 1983. La fédération est chargée d'organiser, de développer, de coordonner et de contrôler la pratique des activités physiques et sportives des personnes en situation de handicap mental ou psychique.
 Il s’agit de personnes (enfants, adolescents, adultes, personnes âgées) présentant :
 soit une déficience intellectuelle légère, moyenne ou profonde à laquelle peuvent être associés des handicaps physiques ou sensoriels (personnes polyhandicapées) ;
-soit des troubles psychiques[2].
-Elle est agréée par le ministère des Sports et a été reconnue d'utilité publique le 26 avril 1999[1].
+soit des troubles psychiques.
+Elle est agréée par le ministère des Sports et a été reconnue d'utilité publique le 26 avril 1999.
 La FFSA est membre de Virtus, Fédération internationale des athlètes ayant une déficience intellectuelle (en anglais : International Federation for athletes with intellectual impairment).
 </t>
         </is>
@@ -499,7 +511,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_du_sport_adapt%C3%A9</t>
+          <t>Fédération_française_du_sport_adapté</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,7 +529,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grâce à la présence d'Eunice Kennedy Shriver en France (sœur du président J.F. Kennedy) et aux premiers travaux de la Franco American Volunteer Association (FAVA) — association qu'elle crée à Paris — la promotion du sport pour les personnes handicapées mentales débute vers 1969.
 En 1970, à Paris, des Jeux olympiques spéciaux rassemblent des dizaines de déficients mentaux à l'Institut national du sport, de l'expertise et de la performance (INSEP). Cette même année, à l'initiative de Jean-Louis Calvino, des parents de l'Unapei qui fête ses 40 ans en 2010 et des étudiants en sciences et techniques des activités physiques et sportives (STAPS) envisagent la création d'une association nationale. Ainsi naît en 1971 la Fédération française de sport pour handicapés mentaux (FFSHM) agréée officiellement par le ministère de la Jeunesse et des Sports.
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_du_sport_adapt%C3%A9</t>
+          <t>Fédération_française_du_sport_adapté</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,16 +569,18 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Ses missions visent à :
 proposer sur le territoire une offre d'activités physiques et sportives diversifiées en cohérence avec le niveau de déficience de ses adhérents ;
 agir sur l'environnement immédiat du sportif par la création d'un tissu associatif structurant et la formation des professionnels en activités physiques adaptées favorisant un processus d'intégration par le sport ;
 s'inscrire résolument dans la défense des droits des sportifs handicapés.
-La France est un des rares pays à posséder avec la FFSA une fédération sportive qui s'attache à dépasser le concept de handicap pour valoriser les capacités des individus. La participation pleine et entière, l'accessibilité maximale à la vie sociale, culturelle et professionnelle réaffirmées par les plus hautes instances de l'État, sont un enjeu auquel la FFSA a souscrit de longue date comme étant un enjeu éthique[3].
-Par sa philosophie, son organisation et ses échanges, la fédération se présente comme un lieu favorisant l'intégration et la reconnaissance des personnes handicapées par l'appartenance à une communauté et à un groupe[4].
-Il existe une Commission d’études et de recherches de la FFSA qui s’intéresse aux thématiques soulevées par la pratique des activités physiques et sportives pour les personnes en situation de handicap (intégration, santé, sport de haut niveau, citoyenneté, etc.)[5].À la date du 22 novembre 2009, les activités physiques et sportives adaptées sont réintégrées aux Jeux Paralympiques (qui relèvent de l'IPC). La FFSA affiliée à l'INAS-FID espère donc désormais pouvoir présenter quelques athlètes de haut niveau aux Jeux de Londres en 2012 avec le soutien du Comité paralympique et sportif français (CPSF).
-La Fédération est à ce jour (22 novembre 2009)[6] en pleine restructuration avec la création de cinq pôles France labellisés par le Ministère des Sports, de la Jeunesse, de l'Éducation populaire et de la Vie associative :
+La France est un des rares pays à posséder avec la FFSA une fédération sportive qui s'attache à dépasser le concept de handicap pour valoriser les capacités des individus. La participation pleine et entière, l'accessibilité maximale à la vie sociale, culturelle et professionnelle réaffirmées par les plus hautes instances de l'État, sont un enjeu auquel la FFSA a souscrit de longue date comme étant un enjeu éthique.
+Par sa philosophie, son organisation et ses échanges, la fédération se présente comme un lieu favorisant l'intégration et la reconnaissance des personnes handicapées par l'appartenance à une communauté et à un groupe.
+Il existe une Commission d’études et de recherches de la FFSA qui s’intéresse aux thématiques soulevées par la pratique des activités physiques et sportives pour les personnes en situation de handicap (intégration, santé, sport de haut niveau, citoyenneté, etc.).À la date du 22 novembre 2009, les activités physiques et sportives adaptées sont réintégrées aux Jeux Paralympiques (qui relèvent de l'IPC). La FFSA affiliée à l'INAS-FID espère donc désormais pouvoir présenter quelques athlètes de haut niveau aux Jeux de Londres en 2012 avec le soutien du Comité paralympique et sportif français (CPSF).
+La Fédération est à ce jour (22 novembre 2009) en pleine restructuration avec la création de cinq pôles France labellisés par le Ministère des Sports, de la Jeunesse, de l'Éducation populaire et de la Vie associative :
 Pôle natation et tennis de table à Poitiers ;
 Pôle athlétisme et pôle football au CREPS à Reims ;
 Pôle basket-ball à l'INSEP.</t>
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_du_sport_adapt%C3%A9</t>
+          <t>Fédération_française_du_sport_adapté</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>Dirigeants</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les présidents successifs :
 1971-1974 : Robert Picherot
@@ -622,7 +640,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_du_sport_adapt%C3%A9</t>
+          <t>Fédération_française_du_sport_adapté</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -640,7 +658,9 @@
           <t>La FFSA en chiffres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>63 836 licenciés dans toutes les tranches d’âge, à parité H/F ;
 1 000 associations sur tout le territoire national ;
@@ -657,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>F%C3%A9d%C3%A9ration_fran%C3%A7aise_du_sport_adapt%C3%A9</t>
+          <t>Fédération_française_du_sport_adapté</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -675,7 +695,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La FFSA a édité de 2004 à 2011 les Cahiers du sport adapté.
 </t>
